--- a/src/test/resources/automation.xlsx
+++ b/src/test/resources/automation.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moussa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moussa/IdeaProjects/CucumberPOMSeries/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39EC59FE-13C1-8A46-8250-62C004516703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03803F-2D61-5A44-8EE2-6BAC0E67A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20360" yWindow="3540" windowWidth="15200" windowHeight="8140" xr2:uid="{76A42495-D2F8-794B-B292-1E6398B5003F}"/>
+    <workbookView xWindow="-20360" yWindow="3540" windowWidth="15200" windowHeight="8140" activeTab="1" xr2:uid="{76A42495-D2F8-794B-B292-1E6398B5003F}"/>
   </bookViews>
   <sheets>
     <sheet name="contactus" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Subject Heading</t>
   </si>
@@ -63,13 +64,22 @@
   </si>
   <si>
     <t>tom@yopmail.fr</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Selenium12345</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +100,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF297BDE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,10 +130,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -434,18 +452,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE20620E-61CB-7E4D-998A-4A1891F47C92}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -473,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -494,4 +512,41 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2A9DA-A298-4A4B-A817-50B7C1949D36}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{952B90C4-ED8B-354D-8746-038766AEA985}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/src/test/resources/automation.xlsx
+++ b/src/test/resources/automation.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moussa/IdeaProjects/CucumberPOMSeries/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03803F-2D61-5A44-8EE2-6BAC0E67A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE1DD9F-61CF-5B4D-A1CB-CAC0A9F6AC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20360" yWindow="3540" windowWidth="15200" windowHeight="8140" activeTab="1" xr2:uid="{76A42495-D2F8-794B-B292-1E6398B5003F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{76A42495-D2F8-794B-B292-1E6398B5003F}"/>
   </bookViews>
   <sheets>
     <sheet name="contactus" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Subject Heading</t>
   </si>
@@ -54,9 +53,6 @@
     <t>Webmaster</t>
   </si>
   <si>
-    <t>moussaraouf@outlook.fr</t>
-  </si>
-  <si>
     <t>Here is my first message</t>
   </si>
   <si>
@@ -66,20 +62,14 @@
     <t>tom@yopmail.fr</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Selenium12345</t>
-  </si>
-  <si>
-    <t>username</t>
+    <t>LoremIpsum@yaml.sr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,13 +90,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF297BDE"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,11 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -452,18 +434,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE20620E-61CB-7E4D-998A-4A1891F47C92}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,32 +459,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -512,41 +494,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB2A9DA-A298-4A4B-A817-50B7C1949D36}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{952B90C4-ED8B-354D-8746-038766AEA985}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>